--- a/src/main/resources/static/data/통합엑셀sample.xlsx
+++ b/src/main/resources/static/data/통합엑셀sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="통합엑셀(변경금지)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'통합엑셀(변경금지)'!$A$1:$M$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'통합엑셀(변경금지)'!$A$1:$N$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>인도일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>고객명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,22 +242,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,102 +540,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/data/통합엑셀sample.xlsx
+++ b/src/main/resources/static/data/통합엑셀sample.xlsx
@@ -15,7 +15,7 @@
     <sheet name="통합엑셀(변경금지)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'통합엑셀(변경금지)'!$A$1:$N$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'통합엑셀(변경금지)'!$A$1:$P$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>인도일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>차량번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로모션 fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로모션 명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,10 +567,10 @@
     <col min="11" max="11" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="19.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -579,8 +587,10 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -595,8 +605,10 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -638,14 +650,20 @@
       </c>
       <c r="N3" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A1:P2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>